--- a/classfiers/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8705882352941177</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8098958333333334</v>
+        <v>0.9796006944444444</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.425531914893617</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5555555555555557</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5252659574468085</v>
+        <v>0.9986702127659575</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2340425531914894</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3793103448275862</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9539007092198581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.96</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6458333333333334</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8745567375886525</v>
+        <v>0.9929078014184397</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9818262411347518</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9423529411764704</v>
+        <v>0.9114288913773796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5069148936170214</v>
+        <v>0.9790780141843971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6380246250448596</v>
+        <v>0.9368243385205833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8290890957446809</v>
+        <v>0.9942357417257683</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
+++ b/classfiers/mega/svm/nearmiss/mega-svm-default-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.618421052631579</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9796006944444444</v>
+        <v>0.9778012684989428</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9986702127659575</v>
+        <v>0.9994714587737843</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9887640449438202</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.96</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.985200845665962</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9375</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.967741935483871</v>
+        <v>0.963855421686747</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9114288913773796</v>
+        <v>0.9057381523556508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9790780141843971</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9368243385205833</v>
+        <v>0.9327796374423226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9942357417257683</v>
+        <v>0.9924947145877379</v>
       </c>
     </row>
   </sheetData>
